--- a/data/trans_dic/P16-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.589238340193144</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.6361762932974162</v>
+        <v>0.6361762932974163</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.5893545760584389</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3339435419452292</v>
+        <v>0.3395598420347834</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5076447137666672</v>
+        <v>0.5120790026855524</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5264617220570961</v>
+        <v>0.5284692624458555</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.580466535857888</v>
+        <v>0.5814141407953589</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5277860007223525</v>
+        <v>0.523291903628232</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.7164490747061549</v>
+        <v>0.7166576031644424</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6368526473482389</v>
+        <v>0.6402343954607028</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6847833623363706</v>
+        <v>0.6796729304001329</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4424305456627409</v>
+        <v>0.4447299227831006</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6276319823199595</v>
+        <v>0.6291898939818974</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5969245790244651</v>
+        <v>0.5982244298322212</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.6478036758354543</v>
+        <v>0.6463962396279416</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4544975248163555</v>
+        <v>0.4538026625535319</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6256279687220905</v>
+        <v>0.626971569445778</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6481308164137469</v>
+        <v>0.6485922230671339</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6934879280443886</v>
+        <v>0.6913186724021122</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6482669981271472</v>
+        <v>0.652729685732936</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.824329650921109</v>
+        <v>0.8228335291042475</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7479576912329441</v>
+        <v>0.7478869602907043</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7685252620638139</v>
+        <v>0.769188893407988</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5336887504293132</v>
+        <v>0.5332801533190493</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7102448920359098</v>
+        <v>0.7151848943118397</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6793695580294568</v>
+        <v>0.6784912327450733</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7199617366080692</v>
+        <v>0.7182525132774169</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3350743382036849</v>
+        <v>0.3350526753399378</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4623746626636075</v>
+        <v>0.466470710815944</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.4356229112976296</v>
+        <v>0.4365680475631258</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4454270848735169</v>
+        <v>0.4410405625379373</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5407362089567023</v>
+        <v>0.5397424125312007</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6723866580075476</v>
+        <v>0.6725473750383156</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6294792623140326</v>
+        <v>0.626165771782494</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5966166733376339</v>
+        <v>0.5944635533619479</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.4501516972844963</v>
+        <v>0.4528399626117324</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5804768974541178</v>
+        <v>0.5816002655589719</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5464973116585083</v>
+        <v>0.5471537084344036</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5333818670476521</v>
+        <v>0.5334980220169387</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4269469596343258</v>
+        <v>0.4236300745834368</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5570340829752106</v>
+        <v>0.5554419738834261</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5287170785996059</v>
+        <v>0.528010213213069</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.563816597889528</v>
+        <v>0.5527627539130533</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6282288128766303</v>
+        <v>0.6290824194132437</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7559502136358043</v>
+        <v>0.7543463382373532</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.711227193968238</v>
+        <v>0.7111195065298752</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6734557412028492</v>
+        <v>0.6724004625018885</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5186090513928698</v>
+        <v>0.5155912877907824</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6475242619204234</v>
+        <v>0.6427010889334407</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6099235168494956</v>
+        <v>0.6088646587168007</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6024185884459982</v>
+        <v>0.6014825580942321</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.6582709601916298</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.7017288333998708</v>
+        <v>0.7017288333998707</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.4905579961926067</v>
@@ -969,7 +969,7 @@
         <v>0.5838637100809029</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.6511924977986278</v>
+        <v>0.6511924977986276</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.308346014037053</v>
+        <v>0.3101998466178632</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4867290353785753</v>
+        <v>0.4844271481311104</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4512740602450155</v>
+        <v>0.4482408651980674</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5423919354105495</v>
+        <v>0.5383759629227816</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.56355919151331</v>
+        <v>0.5661476112403304</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7095007623960553</v>
+        <v>0.7123775391009713</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.600641545992021</v>
+        <v>0.6055331685461633</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6548214309346697</v>
+        <v>0.6593240227297708</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4528693869729724</v>
+        <v>0.4518382393836766</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6138547721124081</v>
+        <v>0.6172686086639688</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5448550674801702</v>
+        <v>0.5474514164041183</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.615952099364712</v>
+        <v>0.6176237741458299</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4178650253655594</v>
+        <v>0.4151039650080829</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5961622208158678</v>
+        <v>0.5972539125185924</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.560765376952057</v>
+        <v>0.5578774161399581</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6449589161880455</v>
+        <v>0.6495719676556808</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6680484359255521</v>
+        <v>0.6656062873087371</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.807978691001751</v>
+        <v>0.8062282604310123</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7064061323887929</v>
+        <v>0.709762755488468</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7433725317597087</v>
+        <v>0.7413326641528651</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5339363103163686</v>
+        <v>0.5278586448469195</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6883794318562163</v>
+        <v>0.691113744137785</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6228531707028424</v>
+        <v>0.61807856173092</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.684113499103876</v>
+        <v>0.6856413504983586</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.6102833628052995</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5443383661983672</v>
+        <v>0.5443383661983671</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5774744879191337</v>
@@ -1093,7 +1093,7 @@
         <v>0.7453790067102243</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.6448432524910002</v>
+        <v>0.6448432524910003</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.489871868165114</v>
@@ -1105,7 +1105,7 @@
         <v>0.6793760715781182</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.5976760966090605</v>
+        <v>0.5976760966090604</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3505474283534468</v>
+        <v>0.347112887661614</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4313991215208778</v>
+        <v>0.4383558364552827</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5584352354983403</v>
+        <v>0.553856582701821</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4719175290862174</v>
+        <v>0.4767135639057326</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5281246571818679</v>
+        <v>0.524608555873133</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7016128767537652</v>
+        <v>0.6944921532941554</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6984407385575442</v>
+        <v>0.7018535112342474</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5965840195332099</v>
+        <v>0.5957287061752962</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4520284894089441</v>
+        <v>0.4543079373259277</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.5821591910486323</v>
+        <v>0.5848935736800789</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.6439247651624007</v>
+        <v>0.645748323224929</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.5589004068656045</v>
+        <v>0.5542498395123329</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4508028285861773</v>
+        <v>0.4453100579663374</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5418916716422768</v>
+        <v>0.538101951702981</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6602866562122813</v>
+        <v>0.6561313770911567</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6163239520891575</v>
+        <v>0.6104140905631641</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6259786112560355</v>
+        <v>0.6271543048469764</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7894740380741314</v>
+        <v>0.7870277578815114</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7848782029586058</v>
+        <v>0.7851787954375606</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6900834195690694</v>
+        <v>0.6891596934369154</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.5235535506826059</v>
+        <v>0.5253411356586823</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6537463585603607</v>
+        <v>0.6519015998421689</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.711848594276537</v>
+        <v>0.7120498240843711</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6402259923013368</v>
+        <v>0.6386419458574711</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.6483653979820905</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.6242131785106024</v>
+        <v>0.6242131785106022</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.5537264439224753</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4028329447921131</v>
+        <v>0.3989091422809015</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4549212218520592</v>
+        <v>0.465853149804727</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3675400707331357</v>
+        <v>0.3637247036165928</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3986619373186737</v>
+        <v>0.3942633151619832</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5616278464535496</v>
+        <v>0.5583899225106649</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7615499933600225</v>
+        <v>0.755376775788218</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5811969255704524</v>
+        <v>0.581888490932771</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5747254259103579</v>
+        <v>0.5696110958044588</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5058314923043418</v>
+        <v>0.505422741010893</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6248887283407037</v>
+        <v>0.6229793590264044</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4975901981275935</v>
+        <v>0.4961725327226155</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.5026507139756468</v>
+        <v>0.5066445908481526</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5361782704672318</v>
+        <v>0.5383816547674226</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.600732907344664</v>
+        <v>0.6074999844582918</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5048935616135886</v>
+        <v>0.502525238209122</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5159634727213956</v>
+        <v>0.5172895646108145</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6975053614828604</v>
+        <v>0.7053175600560306</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8584821427714885</v>
+        <v>0.8636072600670226</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7130019076607262</v>
+        <v>0.7096977248384728</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6708780979523441</v>
+        <v>0.6714558737497954</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5999027355861696</v>
+        <v>0.5973151453804416</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7157744563163922</v>
+        <v>0.7208067191542014</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5865768628772129</v>
+        <v>0.5894958170466071</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5824646229635552</v>
+        <v>0.5828789657186177</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.4613565050771833</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.5745561804477477</v>
+        <v>0.5745561804477478</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.6461471017766371</v>
@@ -1365,7 +1365,7 @@
         <v>0.6345625607405008</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.6482017005164852</v>
+        <v>0.6482017005164848</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.5267384872591037</v>
@@ -1377,7 +1377,7 @@
         <v>0.5495732521218711</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.6108996422426213</v>
+        <v>0.6108996422426214</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3436472233207205</v>
+        <v>0.3469760420386557</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5259698078038888</v>
+        <v>0.5249798690365743</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3943521739124554</v>
+        <v>0.3987701235612304</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5180793617281672</v>
+        <v>0.519531068162897</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5838780069446063</v>
+        <v>0.5824801744413654</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7262212433358789</v>
+        <v>0.7337802219532262</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.5777336295148541</v>
+        <v>0.5766982382936409</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5987604052818372</v>
+        <v>0.6000789747671822</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4834087392240511</v>
+        <v>0.4819928314035903</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.6461927882413221</v>
+        <v>0.6467518479023301</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5049683861166958</v>
+        <v>0.5074170204034554</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.5735333009475417</v>
+        <v>0.5726344203524436</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4631086466137238</v>
+        <v>0.4705810162843775</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6431250485388205</v>
+        <v>0.6491032418631734</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5236283299558837</v>
+        <v>0.5262666711454538</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6289412582685933</v>
+        <v>0.6304259226443798</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6944162587104632</v>
+        <v>0.702152937257718</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8245385270752019</v>
+        <v>0.8310471498172153</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.6925309845690529</v>
+        <v>0.6908403474102498</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6945741633770266</v>
+        <v>0.6946854189332542</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5668814576127389</v>
+        <v>0.5678450982206398</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7281595319091446</v>
+        <v>0.724873006641627</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.5906730540224931</v>
+        <v>0.5900250077960267</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6451359957793044</v>
+        <v>0.6482265482809288</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.5690443635945129</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.6904215930404821</v>
+        <v>0.690421593040482</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.4735252765359247</v>
@@ -1513,7 +1513,7 @@
         <v>0.5132085346639556</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.6516870492075604</v>
+        <v>0.6516870492075606</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3524168834201004</v>
+        <v>0.3477214316632333</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4817658787779633</v>
+        <v>0.4805932110945686</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4121011771431979</v>
+        <v>0.4144343150456662</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5658206399928899</v>
+        <v>0.563288374922696</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5157950468100536</v>
+        <v>0.5126885804540354</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6397382610397123</v>
+        <v>0.6363473326620446</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5304640280963043</v>
+        <v>0.5323363720869588</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6588202497248662</v>
+        <v>0.6591215262251773</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4449216994935086</v>
+        <v>0.444434014602927</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.5728117403199013</v>
+        <v>0.5749621703226059</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4846196416762757</v>
+        <v>0.4829741596588273</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.6250767304847579</v>
+        <v>0.6199201511085564</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4312865186465663</v>
+        <v>0.4279082839970179</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5606839507909501</v>
+        <v>0.5595118951364009</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.497370051803174</v>
+        <v>0.4936728146730643</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6476992637238458</v>
+        <v>0.6517022346935191</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.597615750373921</v>
+        <v>0.5964432637416116</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7126559652156259</v>
+        <v>0.7132991538602521</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6088908046305688</v>
+        <v>0.609581733925576</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7192356249520555</v>
+        <v>0.7221484894308871</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5009003731084861</v>
+        <v>0.5029734320114094</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.6294542326921815</v>
+        <v>0.6296661101946782</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5409611028998982</v>
+        <v>0.5394941936047709</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.6775059623215131</v>
+        <v>0.6757095084303906</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.4074315340197571</v>
+        <v>0.410654733363308</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3785138385792268</v>
+        <v>0.3792594102751726</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.448021224172537</v>
+        <v>0.4445494162701884</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3387066752941367</v>
+        <v>0.3408047602749551</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.5304862823372474</v>
+        <v>0.5295861673080774</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.5538037262931945</v>
+        <v>0.5508142924307555</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.6032455039826745</v>
+        <v>0.6046499349970563</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.4735650900847009</v>
+        <v>0.4743187380369639</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.4821135372697036</v>
+        <v>0.4833703710033502</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.4790844753788018</v>
+        <v>0.4790338605239345</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.5421187011699696</v>
+        <v>0.5371231439670244</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.4156646602648934</v>
+        <v>0.4180524527933546</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4816760886308281</v>
+        <v>0.4828345785720545</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4534357029251188</v>
+        <v>0.4532037747526802</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5206223221998312</v>
+        <v>0.5206036381530785</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.409199017866914</v>
+        <v>0.4111121315763822</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.6028489809179511</v>
+        <v>0.6005691429618668</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.6246073667654498</v>
+        <v>0.6245172759856994</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.673932729913535</v>
+        <v>0.672339441263337</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.5360561405871844</v>
+        <v>0.5381341252996655</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.5313182104780357</v>
+        <v>0.5339467139770314</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.5316089710750893</v>
+        <v>0.5287714935854734</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.5911883748263961</v>
+        <v>0.5879689951596552</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.4648349099304602</v>
+        <v>0.465746314753984</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3892629640014501</v>
+        <v>0.3883285284746935</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.4883132980448602</v>
+        <v>0.4847948968854915</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.4812026742259131</v>
+        <v>0.4804309908674266</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5032021453825413</v>
+        <v>0.502779326685167</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.5682701241541868</v>
+        <v>0.5705344806960155</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.6858565087422758</v>
+        <v>0.6866667273713194</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.6311566353387356</v>
+        <v>0.6322330969634893</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.619365904362322</v>
+        <v>0.6183647945765089</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.4852638120019713</v>
+        <v>0.4858732256264137</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.5920696276823236</v>
+        <v>0.5934886826711058</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.561955432459523</v>
+        <v>0.5622317470692983</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.5679757667926241</v>
+        <v>0.5680388445283928</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.4235719234481347</v>
+        <v>0.4231097182316391</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5222444836700096</v>
+        <v>0.5208444651202009</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5137800044849611</v>
+        <v>0.5159076738025561</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.5414555268577151</v>
+        <v>0.5413766916103753</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.6018605811283437</v>
+        <v>0.6037934919219309</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.7189461887262381</v>
+        <v>0.7182192685268474</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.6653283202951705</v>
+        <v>0.6656723996851344</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.6486085641057483</v>
+        <v>0.6466108111255088</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.5095629345803319</v>
+        <v>0.5108830364390604</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.6162763389321386</v>
+        <v>0.6168389854762925</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.5858943776659914</v>
+        <v>0.5876940715109631</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.591576507911068</v>
+        <v>0.5913147141511147</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>91170</v>
+        <v>92703</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>148744</v>
+        <v>150044</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>154654</v>
+        <v>155244</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>185079</v>
+        <v>185381</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>137667</v>
+        <v>136494</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>205796</v>
+        <v>205856</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>183861</v>
+        <v>184838</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>216433</v>
+        <v>214818</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>236191</v>
+        <v>237418</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>364186</v>
+        <v>365090</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>347687</v>
+        <v>348444</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>411294</v>
+        <v>410401</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>124082</v>
+        <v>123893</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>183315</v>
+        <v>183708</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>190396</v>
+        <v>190531</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>221115</v>
+        <v>220424</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>169093</v>
+        <v>170257</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>236785</v>
+        <v>236355</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>215938</v>
+        <v>215917</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>242901</v>
+        <v>243111</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>284909</v>
+        <v>284691</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>412122</v>
+        <v>414989</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>395708</v>
+        <v>395197</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>457108</v>
+        <v>456023</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>165217</v>
+        <v>165206</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>233743</v>
+        <v>235814</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>218933</v>
+        <v>219408</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>236365</v>
+        <v>234037</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>272503</v>
+        <v>272003</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>351477</v>
+        <v>351561</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>329271</v>
+        <v>327537</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>325639</v>
+        <v>324464</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>448812</v>
+        <v>451492</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>596880</v>
+        <v>598035</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>560520</v>
+        <v>561193</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>574162</v>
+        <v>574287</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>210517</v>
+        <v>208881</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>281596</v>
+        <v>280791</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>265720</v>
+        <v>265365</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>299188</v>
+        <v>293322</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>316595</v>
+        <v>317025</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>395159</v>
+        <v>394320</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>372032</v>
+        <v>371975</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>367578</v>
+        <v>367002</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>517066</v>
+        <v>514057</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>665822</v>
+        <v>660863</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>625574</v>
+        <v>624488</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>648477</v>
+        <v>647470</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>98315</v>
+        <v>98906</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>157270</v>
+        <v>156526</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>143760</v>
+        <v>142794</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>171392</v>
+        <v>170123</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>189025</v>
+        <v>189893</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>241954</v>
+        <v>242935</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>202001</v>
+        <v>203646</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>233366</v>
+        <v>234971</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>296293</v>
+        <v>295619</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>407683</v>
+        <v>409950</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>356811</v>
+        <v>358512</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>414151</v>
+        <v>415275</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>133235</v>
+        <v>132354</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>192630</v>
+        <v>192982</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>178640</v>
+        <v>177720</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>203803</v>
+        <v>205260</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>224071</v>
+        <v>223252</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>275537</v>
+        <v>274940</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>237571</v>
+        <v>238700</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>264924</v>
+        <v>264197</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>349332</v>
+        <v>345356</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>457178</v>
+        <v>458994</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>407890</v>
+        <v>404764</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>459981</v>
+        <v>461008</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>125731</v>
+        <v>124499</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>161336</v>
+        <v>163937</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>206601</v>
+        <v>204907</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>176094</v>
+        <v>177883</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>196175</v>
+        <v>194869</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>272208</v>
+        <v>269445</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>270494</v>
+        <v>271816</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>251735</v>
+        <v>251374</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>330038</v>
+        <v>331702</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>443580</v>
+        <v>445663</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>487610</v>
+        <v>488991</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>444386</v>
+        <v>440688</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>161690</v>
+        <v>159720</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>202658</v>
+        <v>201240</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>244282</v>
+        <v>242745</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>229978</v>
+        <v>227773</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>232524</v>
+        <v>232960</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>306295</v>
+        <v>305346</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>303970</v>
+        <v>304086</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>291188</v>
+        <v>290799</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>382261</v>
+        <v>383566</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>498126</v>
+        <v>496720</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>539045</v>
+        <v>539198</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>509048</v>
+        <v>507789</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>81899</v>
+        <v>81101</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>96724</v>
+        <v>99049</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>77632</v>
+        <v>76826</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>81991</v>
+        <v>81086</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>116632</v>
+        <v>115960</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>167230</v>
+        <v>165874</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>127042</v>
+        <v>127193</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>130586</v>
+        <v>129424</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>207885</v>
+        <v>207717</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>270083</v>
+        <v>269257</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>213868</v>
+        <v>213259</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>217587</v>
+        <v>219316</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>109009</v>
+        <v>109457</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>127727</v>
+        <v>129165</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>106644</v>
+        <v>106144</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>106116</v>
+        <v>106388</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>144850</v>
+        <v>146472</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>188515</v>
+        <v>189640</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>155853</v>
+        <v>155131</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>152434</v>
+        <v>152565</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>246546</v>
+        <v>245482</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>309364</v>
+        <v>311539</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>252115</v>
+        <v>253370</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>252137</v>
+        <v>252316</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>93063</v>
+        <v>93965</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>144106</v>
+        <v>143835</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>103763</v>
+        <v>104926</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>140248</v>
+        <v>140641</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>162402</v>
+        <v>162013</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>202717</v>
+        <v>204827</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>157788</v>
+        <v>157505</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>157923</v>
+        <v>158271</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>265370</v>
+        <v>264592</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>357423</v>
+        <v>357732</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>270783</v>
+        <v>272096</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>306529</v>
+        <v>306048</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>125415</v>
+        <v>127439</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>176204</v>
+        <v>177842</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>137779</v>
+        <v>138473</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>170259</v>
+        <v>170661</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>193148</v>
+        <v>195300</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>230162</v>
+        <v>231979</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>189141</v>
+        <v>188679</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>183194</v>
+        <v>183223</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>311192</v>
+        <v>311721</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>402760</v>
+        <v>400942</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>316741</v>
+        <v>316394</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>344797</v>
+        <v>346449</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>216746</v>
+        <v>213858</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>319309</v>
+        <v>318531</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>270568</v>
+        <v>272100</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>407214</v>
+        <v>405391</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>329190</v>
+        <v>327208</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>443884</v>
+        <v>441532</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>366707</v>
+        <v>368001</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>508647</v>
+        <v>508879</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>557596</v>
+        <v>556985</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>777100</v>
+        <v>780017</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>653196</v>
+        <v>650978</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>932454</v>
+        <v>924762</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>265253</v>
+        <v>263175</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>371615</v>
+        <v>370838</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>326552</v>
+        <v>324125</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>466141</v>
+        <v>469022</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>381410</v>
+        <v>380661</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>494478</v>
+        <v>494925</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>420923</v>
+        <v>421400</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>555291</v>
+        <v>557540</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>627751</v>
+        <v>630349</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>853943</v>
+        <v>854231</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>729136</v>
+        <v>727158</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1010665</v>
+        <v>1007986</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>302631</v>
+        <v>305025</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>294095</v>
+        <v>294674</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>348822</v>
+        <v>346119</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>270312</v>
+        <v>271987</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>415642</v>
+        <v>414937</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>456253</v>
+        <v>453790</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>498382</v>
+        <v>499542</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>393062</v>
+        <v>393687</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>735844</v>
+        <v>737762</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>766930</v>
+        <v>766849</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>869965</v>
+        <v>861948</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>676734</v>
+        <v>680622</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>357778</v>
+        <v>358638</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>352307</v>
+        <v>352127</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>405348</v>
+        <v>405333</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>326570</v>
+        <v>328097</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>472339</v>
+        <v>470553</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>514585</v>
+        <v>514510</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>556781</v>
+        <v>555465</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>444930</v>
+        <v>446655</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>810945</v>
+        <v>814956</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>851013</v>
+        <v>846471</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>948710</v>
+        <v>943543</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>756787</v>
+        <v>758271</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>1275041</v>
+        <v>1271980</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>1671005</v>
+        <v>1658965</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1633370</v>
+        <v>1630751</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1777693</v>
+        <v>1776200</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>1920297</v>
+        <v>1927948</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2438499</v>
+        <v>2441380</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>2237161</v>
+        <v>2240977</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>2312242</v>
+        <v>2308505</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>3229296</v>
+        <v>3233351</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>4131107</v>
+        <v>4141009</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>3899348</v>
+        <v>3901265</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>4126914</v>
+        <v>4127372</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1387420</v>
+        <v>1385906</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1787117</v>
+        <v>1782327</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1743949</v>
+        <v>1751171</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1912834</v>
+        <v>1912555</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2033805</v>
+        <v>2040337</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2556146</v>
+        <v>2553562</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2358284</v>
+        <v>2359504</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2421412</v>
+        <v>2413954</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>3391000</v>
+        <v>3399785</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>4300007</v>
+        <v>4303933</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>4065458</v>
+        <v>4077946</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>4298397</v>
+        <v>4296494</v>
       </c>
     </row>
     <row r="40">
